--- a/Data/Metadata/Angiosperms/powo/Aristolochiaceae.xlsx
+++ b/Data/Metadata/Angiosperms/powo/Aristolochiaceae.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -482,17 +482,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prosopanche</t>
+          <t>Aristolochia</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>demogorgoni</t>
+          <t>cabrerae</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Funez</t>
+          <t>Ahumada</t>
         </is>
       </c>
       <c r="E3" t="b">
@@ -505,7 +505,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Prosopanche_demogorgoni</t>
+          <t>Aristolochia_cabrerae</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -520,12 +520,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>/taxon/urn:lsid:ipni.org:names:77202832-1</t>
+          <t>/taxon/urn:lsid:ipni.org:names:272649-2</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>urn:lsid:ipni.org:names:77202832-1</t>
+          <t>urn:lsid:ipni.org:names:272649-2</t>
         </is>
       </c>
     </row>
@@ -542,12 +542,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>cabrerae</t>
+          <t>huebneriana</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Ahumada</t>
+          <t>O.C.Schmidt</t>
         </is>
       </c>
       <c r="E4" t="b">
@@ -560,7 +560,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Aristolochia_cabrerae</t>
+          <t>Aristolochia_huebneriana</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -575,12 +575,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>/taxon/urn:lsid:ipni.org:names:272649-2</t>
+          <t>/taxon/urn:lsid:ipni.org:names:19500-2</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>urn:lsid:ipni.org:names:272649-2</t>
+          <t>urn:lsid:ipni.org:names:19500-2</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>huebneriana</t>
+          <t>krukoffii</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Aristolochia_huebneriana</t>
+          <t>Aristolochia_krukoffii</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -630,12 +630,12 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>/taxon/urn:lsid:ipni.org:names:19500-2</t>
+          <t>/taxon/urn:lsid:ipni.org:names:19510-2</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>urn:lsid:ipni.org:names:19500-2</t>
+          <t>urn:lsid:ipni.org:names:19510-2</t>
         </is>
       </c>
     </row>
@@ -652,12 +652,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>krukoffii</t>
+          <t>paraensis</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>O.C.Schmidt</t>
+          <t>L.Planch.</t>
         </is>
       </c>
       <c r="E6" t="b">
@@ -670,7 +670,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Aristolochia_krukoffii</t>
+          <t>Aristolochia_paraensis</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -685,12 +685,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>/taxon/urn:lsid:ipni.org:names:19510-2</t>
+          <t>/taxon/urn:lsid:ipni.org:names:93199-1</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>urn:lsid:ipni.org:names:19510-2</t>
+          <t>urn:lsid:ipni.org:names:93199-1</t>
         </is>
       </c>
     </row>
@@ -707,12 +707,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>paraensis</t>
+          <t>schmidtiana</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>L.Planch.</t>
+          <t>Hoehne</t>
         </is>
       </c>
       <c r="E7" t="b">
@@ -725,7 +725,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Aristolochia_paraensis</t>
+          <t>Aristolochia_schmidtiana</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -740,12 +740,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>/taxon/urn:lsid:ipni.org:names:93199-1</t>
+          <t>/taxon/urn:lsid:ipni.org:names:19612-2</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>urn:lsid:ipni.org:names:93199-1</t>
+          <t>urn:lsid:ipni.org:names:19612-2</t>
         </is>
       </c>
     </row>
@@ -757,17 +757,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Prosopanche</t>
+          <t>Aristolochia</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>caatingicola</t>
+          <t>surinamensis</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>R.F.Machado &amp; L.P.Queiroz</t>
+          <t>Willd.</t>
         </is>
       </c>
       <c r="E8" t="b">
@@ -780,7 +780,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Prosopanche_caatingicola</t>
+          <t>Aristolochia_surinamensis</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -795,12 +795,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>/taxon/urn:lsid:ipni.org:names:77123899-1</t>
+          <t>/taxon/urn:lsid:ipni.org:names:93372-1</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>urn:lsid:ipni.org:names:77123899-1</t>
+          <t>urn:lsid:ipni.org:names:93372-1</t>
         </is>
       </c>
     </row>
@@ -817,12 +817,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>schmidtiana</t>
+          <t>pyriflora</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Hoehne</t>
+          <t>Lombardi &amp; D.Frank</t>
         </is>
       </c>
       <c r="E9" t="b">
@@ -835,7 +835,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Aristolochia_schmidtiana</t>
+          <t>Aristolochia_pyriflora</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -850,12 +850,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>/taxon/urn:lsid:ipni.org:names:19612-2</t>
+          <t>/taxon/urn:lsid:ipni.org:names:77306592-1</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>urn:lsid:ipni.org:names:19612-2</t>
+          <t>urn:lsid:ipni.org:names:77306592-1</t>
         </is>
       </c>
     </row>
@@ -872,12 +872,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>surinamensis</t>
+          <t>stomachoidis</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Willd.</t>
+          <t>Hoehne</t>
         </is>
       </c>
       <c r="E10" t="b">
@@ -890,7 +890,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Aristolochia_surinamensis</t>
+          <t>Aristolochia_stomachoidis</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -905,12 +905,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>/taxon/urn:lsid:ipni.org:names:93372-1</t>
+          <t>/taxon/urn:lsid:ipni.org:names:19627-2</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>urn:lsid:ipni.org:names:93372-1</t>
+          <t>urn:lsid:ipni.org:names:19627-2</t>
         </is>
       </c>
     </row>
@@ -927,12 +927,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>pyriflora</t>
+          <t>leuconeura</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Lombardi &amp; D.Frank</t>
+          <t>Linden</t>
         </is>
       </c>
       <c r="E11" t="b">
@@ -945,7 +945,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Aristolochia_pyriflora</t>
+          <t>Aristolochia_leuconeura</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -960,12 +960,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>/taxon/urn:lsid:ipni.org:names:77306592-1</t>
+          <t>/taxon/urn:lsid:ipni.org:names:272659-2</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>urn:lsid:ipni.org:names:77306592-1</t>
+          <t>urn:lsid:ipni.org:names:272659-2</t>
         </is>
       </c>
     </row>
@@ -977,17 +977,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Aristolochia</t>
+          <t>Prosopanche</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>stomachoidis</t>
+          <t>americana</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Hoehne</t>
+          <t>(R.Br.) Baill.</t>
         </is>
       </c>
       <c r="E12" t="b">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Aristolochia_stomachoidis</t>
+          <t>Prosopanche_americana</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1015,12 +1015,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>/taxon/urn:lsid:ipni.org:names:19627-2</t>
+          <t>/taxon/urn:lsid:ipni.org:names:210396-2</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>urn:lsid:ipni.org:names:19627-2</t>
+          <t>urn:lsid:ipni.org:names:210396-2</t>
         </is>
       </c>
     </row>
@@ -1037,12 +1037,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>leuconeura</t>
+          <t>nummulariifolia</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Linden</t>
+          <t>Kunth</t>
         </is>
       </c>
       <c r="E13" t="b">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Aristolochia_leuconeura</t>
+          <t>Aristolochia_nummulariifolia</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1070,12 +1070,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>/taxon/urn:lsid:ipni.org:names:272659-2</t>
+          <t>/taxon/urn:lsid:ipni.org:names:93167-1</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>urn:lsid:ipni.org:names:272659-2</t>
+          <t>urn:lsid:ipni.org:names:93167-1</t>
         </is>
       </c>
     </row>
@@ -1087,17 +1087,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Prosopanche</t>
+          <t>Aristolochia</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>americana</t>
+          <t>constricta</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>(R.Br.) Baill.</t>
+          <t>Griseb.</t>
         </is>
       </c>
       <c r="E14" t="b">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Prosopanche_americana</t>
+          <t>Aristolochia_constricta</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1125,175 +1125,10 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>/taxon/urn:lsid:ipni.org:names:210396-2</t>
+          <t>/taxon/urn:lsid:ipni.org:names:92853-1</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
-        <is>
-          <t>urn:lsid:ipni.org:names:210396-2</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Aristolochiaceae</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Aristolochia</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>nummulariifolia</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Kunth</t>
-        </is>
-      </c>
-      <c r="E15" t="b">
-        <v>1</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Plantae</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Aristolochia_nummulariifolia</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Species</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> &lt;b&gt;Location&lt;/b&gt;: &lt;em&gt;Brazil&lt;/em&gt;</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>/taxon/urn:lsid:ipni.org:names:93167-1</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>urn:lsid:ipni.org:names:93167-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Aristolochiaceae</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Prosopanche</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>bonacinae</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Speg.</t>
-        </is>
-      </c>
-      <c r="E16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Plantae</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Prosopanche_bonacinae</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Species</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> &lt;b&gt;Location&lt;/b&gt;: &lt;em&gt;Brazil&lt;/em&gt;</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>/taxon/urn:lsid:ipni.org:names:210400-2</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>urn:lsid:ipni.org:names:210400-2</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Aristolochiaceae</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Aristolochia</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>constricta</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Griseb.</t>
-        </is>
-      </c>
-      <c r="E17" t="b">
-        <v>1</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Plantae</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Aristolochia_constricta</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Species</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> &lt;b&gt;Location&lt;/b&gt;: &lt;em&gt;Brazil&lt;/em&gt;</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>/taxon/urn:lsid:ipni.org:names:92853-1</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
         <is>
           <t>urn:lsid:ipni.org:names:92853-1</t>
         </is>
